--- a/LAN.xlsx
+++ b/LAN.xlsx
@@ -16,17 +16,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>TPC</t>
+    <t>TPC（LAN）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UDP</t>
+    <t>UDP（LAN）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">RPC </t>
+    <t xml:space="preserve">RPC（LAN） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPC(LOCAL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP(LOCAL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC(LOCAL)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,26 +112,23 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="en-US" sz="1600">
+              <a:rPr lang="en-US" altLang="en-US" sz="1800">
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Transaction</a:t>
+              <a:t>LAN Transaction</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="en-US" sz="1600" baseline="0">
+              <a:rPr lang="en-US" altLang="en-US" sz="1800" baseline="0">
                 <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t> time of TPC, UDP and RPC</a:t>
+              <a:t> time </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="en-US" sz="1600">
-                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>  </a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -136,19 +145,23 @@
           <c:tx>
             <c:v>Transaction Time</c:v>
           </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>TPC</c:v>
+                  <c:v>TPC（LAN）</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>UDP</c:v>
+                  <c:v>UDP（LAN）</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RPC </c:v>
+                  <c:v>RPC（LAN） </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -173,14 +186,13 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="48175360"/>
-        <c:axId val="48177152"/>
+        <c:axId val="192861696"/>
+        <c:axId val="192863616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48175360"/>
+        <c:axId val="192861696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -196,7 +208,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="en-US"/>
-                  <a:t>Protocol</a:t>
+                  <a:t>Protocols</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -205,14 +217,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48177152"/>
+        <c:crossAx val="192863616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48177152"/>
+        <c:axId val="192863616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,7 +252,179 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48175360"/>
+        <c:crossAx val="192861696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Local</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Transaction Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Transaction Time</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>TPC(LOCAL)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UDP(LOCAL)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RPC(LOCAL)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>156.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>345.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="121979648"/>
+        <c:axId val="121981184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="121979648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Protocols</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121981184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121981184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>time/ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121979648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -263,16 +447,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -286,6 +470,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -579,15 +793,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,8 +811,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>687</v>
       </c>
@@ -608,8 +831,17 @@
       <c r="C2">
         <v>1149</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="K2">
+        <v>219</v>
+      </c>
+      <c r="L2">
+        <v>153</v>
+      </c>
+      <c r="M2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>841</v>
       </c>
@@ -619,8 +851,17 @@
       <c r="C3">
         <v>930</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="K3">
+        <v>181</v>
+      </c>
+      <c r="L3">
+        <v>130</v>
+      </c>
+      <c r="M3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>527</v>
       </c>
@@ -630,8 +871,17 @@
       <c r="C4">
         <v>960</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="K4">
+        <v>224</v>
+      </c>
+      <c r="L4">
+        <v>143</v>
+      </c>
+      <c r="M4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>799</v>
       </c>
@@ -641,8 +891,17 @@
       <c r="C5">
         <v>962</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="K5">
+        <v>124</v>
+      </c>
+      <c r="L5">
+        <v>157</v>
+      </c>
+      <c r="M5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>757</v>
       </c>
@@ -652,8 +911,17 @@
       <c r="C6">
         <v>869</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="K6">
+        <v>177</v>
+      </c>
+      <c r="L6">
+        <v>142</v>
+      </c>
+      <c r="M6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>745</v>
       </c>
@@ -663,8 +931,17 @@
       <c r="C7">
         <v>1031</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="K7">
+        <v>125</v>
+      </c>
+      <c r="L7">
+        <v>147</v>
+      </c>
+      <c r="M7">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>604</v>
       </c>
@@ -674,8 +951,17 @@
       <c r="C8">
         <v>982</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="K8">
+        <v>149</v>
+      </c>
+      <c r="L8">
+        <v>153</v>
+      </c>
+      <c r="M8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>824</v>
       </c>
@@ -685,8 +971,17 @@
       <c r="C9">
         <v>923</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="K9">
+        <v>116</v>
+      </c>
+      <c r="L9">
+        <v>149</v>
+      </c>
+      <c r="M9">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>642</v>
       </c>
@@ -696,8 +991,17 @@
       <c r="C10">
         <v>1062</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="K10">
+        <v>137</v>
+      </c>
+      <c r="L10">
+        <v>199</v>
+      </c>
+      <c r="M10">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>563</v>
       </c>
@@ -707,8 +1011,17 @@
       <c r="C11">
         <v>1110</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="K11">
+        <v>114</v>
+      </c>
+      <c r="L11">
+        <v>137</v>
+      </c>
+      <c r="M11">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>698.9</v>
@@ -720,6 +1033,18 @@
       <c r="C12">
         <f>AVERAGE(C2:C11)</f>
         <v>997.8</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE(K2:K11)</f>
+        <v>156.6</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE(L2:L11)</f>
+        <v>151</v>
+      </c>
+      <c r="M12">
+        <f>AVERAGE(M2:M11)</f>
+        <v>345.3</v>
       </c>
     </row>
   </sheetData>
